--- a/spec/files/outputvars.xlsx
+++ b/spec/files/outputvars.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14016" windowHeight="8412" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14016" windowHeight="8412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="496">
   <si>
     <t>type</t>
   </si>
@@ -1500,6 +1500,24 @@
   </si>
   <si>
     <t>fans_electricity</t>
+  </si>
+  <si>
+    <t>Allow Multiple Jobs</t>
+  </si>
+  <si>
+    <t>Use Server As Worker</t>
+  </si>
+  <si>
+    <t>Simulate Data Point Filename</t>
+  </si>
+  <si>
+    <t>Run Data Point Filename</t>
+  </si>
+  <si>
+    <t>simulate_data_point.rb</t>
+  </si>
+  <si>
+    <t>run_openstudio_workflow_monthly.rb</t>
   </si>
 </sst>
 </file>
@@ -2869,7 +2887,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2931,6 +2949,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1255">
@@ -4212,11 +4233,11 @@
       <sheetName val="Lookups"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
         <row r="2">
           <cell r="A2" t="str">
@@ -4589,16 +4610,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -4708,128 +4729,163 @@
         <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="14" t="s">
-        <v>461</v>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B11" s="25" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B12" s="28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="25"/>
+    </row>
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="14" t="s">
         <v>461</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="25">
-        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B18" s="25">
-        <v>20</v>
-      </c>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>462</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>35</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="12"/>
       <c r="D20" s="12"/>
-      <c r="E20" s="14"/>
+      <c r="E20" s="14" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B23" s="25">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B26" s="25" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12" t="s">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B28" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E28" s="14" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B29" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D29" s="26" t="s">
         <v>447</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B31" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C31" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="14"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4841,7 +4897,7 @@
           <x14:formula1>
             <xm:f>[1]Lookups!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B16</xm:sqref>
+          <xm:sqref>B21</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
@@ -5901,7 +5957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>

--- a/spec/files/outputvars.xlsx
+++ b/spec/files/outputvars.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14016" windowHeight="8412" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25640" windowHeight="14700" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$W$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$W$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="501">
   <si>
     <t>type</t>
   </si>
@@ -1518,6 +1518,21 @@
   </si>
   <si>
     <t>run_openstudio_workflow_monthly.rb</t>
+  </si>
+  <si>
+    <t>2 Cores</t>
+  </si>
+  <si>
+    <t>$0.410/hour</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
   </si>
 </sst>
 </file>
@@ -1577,7 +1592,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1620,6 +1635,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2887,7 +2908,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2947,11 +2968,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1255">
@@ -4222,7 +4250,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Instructions"/>
@@ -4242,45 +4270,6 @@
         <row r="2">
           <cell r="A2" t="str">
             <v>m2.xlarge</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>2 Cores</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>$0.410/hour</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>m2.2xlarge</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>4 Cores</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>$0.820/hour</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>c3.2xlarge</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>8 Cores</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>$1.20/hour</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>cc2.8xlarge</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>16 Cores</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>$2.40/hour</v>
           </cell>
         </row>
       </sheetData>
@@ -4582,17 +4571,17 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -4612,21 +4601,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="21"/>
       <c r="B1" s="22"/>
       <c r="C1" s="21"/>
@@ -4635,7 +4624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" s="13" customFormat="1">
       <c r="A2" s="12" t="s">
         <v>451</v>
       </c>
@@ -4644,7 +4633,7 @@
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>452</v>
       </c>
@@ -4655,45 +4644,41 @@
         <v>454</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>455</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="C4" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),2)</f>
-        <v>2 Cores</v>
-      </c>
-      <c r="D4" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B4,[1]Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.410/hour</v>
+      <c r="C4" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28">
       <c r="A5" s="1" t="s">
         <v>458</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>456</v>
       </c>
-      <c r="C5" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),2)</f>
-        <v>2 Cores</v>
-      </c>
-      <c r="D5" s="3" t="str">
-        <f>INDEX([1]Lookups!$A$2:$C$5,MATCH($B5,[1]Lookups!$A$2:$A$5,0),3)</f>
-        <v>$0.410/hour</v>
+      <c r="C5" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>497</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" s="13" customFormat="1">
       <c r="A7" s="12" t="s">
         <v>32</v>
       </c>
@@ -4702,7 +4687,7 @@
       <c r="D7" s="14"/>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>46</v>
       </c>
@@ -4713,7 +4698,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
@@ -4721,7 +4706,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
@@ -4729,7 +4714,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>490</v>
       </c>
@@ -4737,15 +4722,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B12" s="28" t="b">
+      <c r="B12" s="27" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>492</v>
       </c>
@@ -4753,7 +4738,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>493</v>
       </c>
@@ -4761,10 +4746,10 @@
         <v>495</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5">
       <c r="B15" s="25"/>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A17" s="12" t="s">
         <v>31</v>
       </c>
@@ -4775,7 +4760,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
         <v>462</v>
       </c>
@@ -4783,7 +4768,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="12" t="s">
         <v>463</v>
       </c>
@@ -4794,7 +4779,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -4802,7 +4787,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
@@ -4810,7 +4795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
         <v>465</v>
       </c>
@@ -4819,7 +4804,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A25" s="12" t="s">
         <v>38</v>
       </c>
@@ -4832,7 +4817,7 @@
       <c r="D25" s="12"/>
       <c r="E25" s="14"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
         <v>33</v>
       </c>
@@ -4840,7 +4825,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A28" s="12" t="s">
         <v>34</v>
       </c>
@@ -4857,7 +4842,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="28">
       <c r="A29" s="1" t="s">
         <v>37</v>
       </c>
@@ -4874,7 +4859,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A31" s="12" t="s">
         <v>40</v>
       </c>
@@ -4923,25 +4908,25 @@
       <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="61.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="42.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -4960,16 +4945,16 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-    </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
       <c r="A2" s="9" t="s">
         <v>3</v>
       </c>
@@ -4982,7 +4967,7 @@
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="45">
       <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
@@ -5047,7 +5032,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="b">
         <v>1</v>
       </c>
@@ -5071,7 +5056,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5"/>
       <c r="B5" t="s">
         <v>24</v>
@@ -5102,7 +5087,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" ht="28">
       <c r="A6"/>
       <c r="B6" t="s">
         <v>25</v>
@@ -5144,7 +5129,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7"/>
       <c r="B7" t="s">
         <v>24</v>
@@ -5172,7 +5157,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8" t="s">
         <v>24</v>
@@ -5200,7 +5185,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9" t="s">
         <v>24</v>
@@ -5228,7 +5213,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10" t="s">
         <v>24</v>
@@ -5258,7 +5243,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11" t="s">
         <v>24</v>
@@ -5286,7 +5271,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12" t="s">
         <v>24</v>
@@ -5314,7 +5299,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13" t="s">
         <v>24</v>
@@ -5342,7 +5327,7 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1">
       <c r="A14" t="b">
         <v>1</v>
       </c>
@@ -5356,7 +5341,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" customFormat="1">
       <c r="B15" t="s">
         <v>24</v>
       </c>
@@ -5379,7 +5364,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" customFormat="1">
       <c r="B16" t="s">
         <v>25</v>
       </c>
@@ -5416,7 +5401,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -5436,7 +5421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" customFormat="1">
       <c r="B18" t="s">
         <v>24</v>
       </c>
@@ -5456,7 +5441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" customFormat="1">
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -5476,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20" t="b">
         <v>1</v>
       </c>
@@ -5500,7 +5485,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>25</v>
@@ -5539,7 +5524,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>25</v>
@@ -5578,7 +5563,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -5601,7 +5586,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20" t="b">
         <v>1</v>
       </c>
@@ -5620,7 +5605,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>25</v>
@@ -5659,7 +5644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -5682,7 +5667,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -5705,7 +5690,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -5728,7 +5713,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20" t="b">
         <v>1</v>
       </c>
@@ -5747,7 +5732,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>25</v>
@@ -5786,7 +5771,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20" t="s">
         <v>24</v>
@@ -5809,7 +5794,7 @@
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -5832,7 +5817,7 @@
       </c>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -5855,7 +5840,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20" t="b">
         <v>1</v>
       </c>
@@ -5874,7 +5859,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -5899,7 +5884,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>25</v>
@@ -5957,30 +5942,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="5"/>
-    <col min="10" max="15" width="11.44140625" style="1"/>
-    <col min="16" max="16" width="46.109375" style="1" customWidth="1"/>
-    <col min="17" max="19" width="11.44140625" style="1"/>
+    <col min="9" max="9" width="11.5" style="5"/>
+    <col min="10" max="15" width="11.5" style="1"/>
+    <col min="16" max="16" width="46.1640625" style="1" customWidth="1"/>
+    <col min="17" max="19" width="11.5" style="1"/>
     <col min="20" max="20" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.44140625" style="1"/>
+    <col min="21" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="18">
       <c r="A1" s="6"/>
       <c r="B1" s="6"/>
       <c r="C1" s="8" t="s">
@@ -5999,43 +5984,52 @@
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
       <c r="P1" s="6"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-    </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15">
+      <c r="A2" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="29" t="s">
         <v>476</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>499</v>
       </c>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:22" s="16" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" spans="1:22" s="16" customFormat="1" ht="30">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30" t="s">
         <v>479</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="30" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="30" t="s">
+        <v>500</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
       <c r="J3" s="18"/>
@@ -6047,7 +6041,7 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>480</v>
       </c>
@@ -6073,7 +6067,7 @@
       <c r="O4" s="4"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>483</v>
       </c>
@@ -6100,7 +6094,7 @@
       <c r="O5" s="4"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>485</v>
       </c>
@@ -6126,7 +6120,7 @@
       <c r="O6" s="4"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>488</v>
       </c>
@@ -6152,7 +6146,7 @@
       <c r="O7" s="4"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8"/>
       <c r="B8"/>
       <c r="C8"/>
@@ -6168,7 +6162,7 @@
       <c r="O8" s="4"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9"/>
       <c r="B9"/>
       <c r="C9"/>
@@ -6184,7 +6178,7 @@
       <c r="O9" s="4"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -6200,7 +6194,7 @@
       <c r="O10" s="4"/>
       <c r="P10"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -6216,7 +6210,7 @@
       <c r="O11" s="4"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -6232,7 +6226,7 @@
       <c r="O12" s="4"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -6248,9 +6242,9 @@
       <c r="O13" s="4"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:22" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:22" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" customFormat="1"/>
+    <row r="15" spans="1:22" customFormat="1"/>
+    <row r="16" spans="1:22" customFormat="1">
       <c r="C16" s="19"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -6259,10 +6253,10 @@
       <c r="N16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:14" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" customFormat="1"/>
+    <row r="18" spans="1:14" customFormat="1"/>
+    <row r="19" spans="1:14" customFormat="1"/>
+    <row r="20" spans="1:14" customFormat="1" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20"/>
       <c r="C20" s="20"/>
@@ -6278,7 +6272,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" customFormat="1" ht="15">
       <c r="A21" s="20"/>
       <c r="B21" s="20"/>
       <c r="C21" s="20"/>
@@ -6294,7 +6288,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" customFormat="1" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -6310,7 +6304,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" customFormat="1" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
       <c r="C23" s="20"/>
@@ -6321,7 +6315,7 @@
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" customFormat="1" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
@@ -6332,7 +6326,7 @@
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" customFormat="1" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
       <c r="C25" s="20"/>
@@ -6346,7 +6340,7 @@
       <c r="M25" s="3"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" customFormat="1" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20"/>
       <c r="C26" s="20"/>
@@ -6357,7 +6351,7 @@
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" customFormat="1" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
@@ -6368,7 +6362,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" customFormat="1" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
@@ -6379,7 +6373,7 @@
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" customFormat="1" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
@@ -6390,7 +6384,7 @@
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" customFormat="1" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20"/>
       <c r="C30" s="20"/>
@@ -6404,7 +6398,7 @@
       <c r="M30" s="3"/>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" customFormat="1" ht="15">
       <c r="A31" s="20"/>
       <c r="B31" s="20"/>
       <c r="C31" s="20"/>
@@ -6415,7 +6409,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" customFormat="1" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6426,7 +6420,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" customFormat="1" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="20"/>
@@ -6437,7 +6431,7 @@
       <c r="H33" s="20"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" customFormat="1" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="20"/>
@@ -6448,7 +6442,7 @@
       <c r="H34" s="20"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" customFormat="1" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -6459,7 +6453,7 @@
       <c r="H35" s="20"/>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" customFormat="1" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -6480,6 +6474,11 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6491,19 +6490,19 @@
       <selection activeCell="C253" sqref="C253"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="20" t="b">
         <v>0</v>
       </c>
@@ -6522,7 +6521,7 @@
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="20"/>
       <c r="B2" s="20" t="s">
         <v>24</v>
@@ -6543,7 +6542,7 @@
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="20"/>
       <c r="B3" s="20" t="s">
         <v>24</v>
@@ -6566,7 +6565,7 @@
       </c>
       <c r="I3" s="20"/>
     </row>
-    <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="20"/>
       <c r="B4" s="20" t="s">
         <v>24</v>
@@ -6589,7 +6588,7 @@
       </c>
       <c r="I4" s="20"/>
     </row>
-    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="20"/>
       <c r="B5" s="20" t="s">
         <v>24</v>
@@ -6612,7 +6611,7 @@
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="20"/>
       <c r="B6" s="20" t="s">
         <v>24</v>
@@ -6635,7 +6634,7 @@
       </c>
       <c r="I6" s="20"/>
     </row>
-    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="20"/>
       <c r="B7" s="20" t="s">
         <v>24</v>
@@ -6658,7 +6657,7 @@
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="20"/>
       <c r="B8" s="20" t="s">
         <v>24</v>
@@ -6681,7 +6680,7 @@
       </c>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="20"/>
       <c r="B9" s="20" t="s">
         <v>24</v>
@@ -6704,7 +6703,7 @@
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="20"/>
       <c r="B10" s="20" t="s">
         <v>24</v>
@@ -6727,7 +6726,7 @@
       </c>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="20" t="b">
         <v>0</v>
       </c>
@@ -6746,7 +6745,7 @@
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
     </row>
-    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="20"/>
       <c r="B12" s="20" t="s">
         <v>24</v>
@@ -6767,7 +6766,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="20"/>
       <c r="B13" s="20" t="s">
         <v>24</v>
@@ -6790,7 +6789,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="20"/>
       <c r="B14" s="20" t="s">
         <v>24</v>
@@ -6813,7 +6812,7 @@
       </c>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="20"/>
       <c r="B15" s="20" t="s">
         <v>24</v>
@@ -6836,7 +6835,7 @@
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="20"/>
       <c r="B16" s="20" t="s">
         <v>24</v>
@@ -6859,7 +6858,7 @@
       </c>
       <c r="I16" s="20"/>
     </row>
-    <row r="17" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>24</v>
@@ -6882,7 +6881,7 @@
       </c>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6905,7 +6904,7 @@
       </c>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>24</v>
@@ -6928,7 +6927,7 @@
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>24</v>
@@ -6951,7 +6950,7 @@
       </c>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="20" t="b">
         <v>0</v>
       </c>
@@ -6970,7 +6969,7 @@
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>24</v>
@@ -6993,7 +6992,7 @@
       </c>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>24</v>
@@ -7016,7 +7015,7 @@
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>24</v>
@@ -7039,7 +7038,7 @@
       </c>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>24</v>
@@ -7062,7 +7061,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="20"/>
       <c r="B26" s="20" t="s">
         <v>24</v>
@@ -7085,7 +7084,7 @@
       </c>
       <c r="I26" s="20"/>
     </row>
-    <row r="27" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="20"/>
       <c r="B27" s="20" t="s">
         <v>24</v>
@@ -7108,7 +7107,7 @@
       </c>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="20"/>
       <c r="B28" s="20" t="s">
         <v>24</v>
@@ -7131,7 +7130,7 @@
       </c>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="20"/>
       <c r="B29" s="20" t="s">
         <v>24</v>
@@ -7154,7 +7153,7 @@
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="20"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -7177,7 +7176,7 @@
       </c>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="20" t="b">
         <v>0</v>
       </c>
@@ -7196,7 +7195,7 @@
       <c r="H31" s="20"/>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="20"/>
       <c r="B32" s="20" t="s">
         <v>24</v>
@@ -7217,7 +7216,7 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -7240,7 +7239,7 @@
       </c>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -7263,7 +7262,7 @@
       </c>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>24</v>
@@ -7286,7 +7285,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="20"/>
       <c r="B36" s="20" t="s">
         <v>24</v>
@@ -7309,7 +7308,7 @@
       </c>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="20"/>
       <c r="B37" s="20" t="s">
         <v>24</v>
@@ -7332,7 +7331,7 @@
       </c>
       <c r="I37" s="20"/>
     </row>
-    <row r="38" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="20"/>
       <c r="B38" s="20" t="s">
         <v>24</v>
@@ -7355,7 +7354,7 @@
       </c>
       <c r="I38" s="20"/>
     </row>
-    <row r="39" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="20"/>
       <c r="B39" s="20" t="s">
         <v>24</v>
@@ -7378,7 +7377,7 @@
       </c>
       <c r="I39" s="20"/>
     </row>
-    <row r="40" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="20"/>
       <c r="B40" s="20" t="s">
         <v>24</v>
@@ -7401,7 +7400,7 @@
       </c>
       <c r="I40" s="20"/>
     </row>
-    <row r="41" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="20" t="b">
         <v>0</v>
       </c>
@@ -7420,7 +7419,7 @@
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
     </row>
-    <row r="42" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="20"/>
       <c r="B42" s="20" t="s">
         <v>24</v>
@@ -7441,7 +7440,7 @@
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
     </row>
-    <row r="43" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="20"/>
       <c r="B43" s="20" t="s">
         <v>24</v>
@@ -7464,7 +7463,7 @@
       </c>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="20"/>
       <c r="B44" s="20" t="s">
         <v>24</v>
@@ -7487,7 +7486,7 @@
       </c>
       <c r="I44" s="20"/>
     </row>
-    <row r="45" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="20"/>
       <c r="B45" s="20" t="s">
         <v>24</v>
@@ -7510,7 +7509,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="20"/>
       <c r="B46" s="20" t="s">
         <v>24</v>
@@ -7533,7 +7532,7 @@
       </c>
       <c r="I46" s="20"/>
     </row>
-    <row r="47" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="20"/>
       <c r="B47" s="20" t="s">
         <v>24</v>
@@ -7556,7 +7555,7 @@
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="20"/>
       <c r="B48" s="20" t="s">
         <v>24</v>
@@ -7579,7 +7578,7 @@
       </c>
       <c r="I48" s="20"/>
     </row>
-    <row r="49" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="20"/>
       <c r="B49" s="20" t="s">
         <v>24</v>
@@ -7602,7 +7601,7 @@
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="20"/>
       <c r="B50" s="20" t="s">
         <v>24</v>
@@ -7625,7 +7624,7 @@
       </c>
       <c r="I50" s="20"/>
     </row>
-    <row r="51" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="20" t="b">
         <v>0</v>
       </c>
@@ -7644,7 +7643,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="20"/>
       <c r="B52" s="20" t="s">
         <v>24</v>
@@ -7665,7 +7664,7 @@
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
     </row>
-    <row r="53" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="20"/>
       <c r="B53" s="20" t="s">
         <v>24</v>
@@ -7688,7 +7687,7 @@
       </c>
       <c r="I53" s="20"/>
     </row>
-    <row r="54" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="20"/>
       <c r="B54" s="20" t="s">
         <v>24</v>
@@ -7711,7 +7710,7 @@
       </c>
       <c r="I54" s="20"/>
     </row>
-    <row r="55" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="20"/>
       <c r="B55" s="20" t="s">
         <v>24</v>
@@ -7734,7 +7733,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="20"/>
       <c r="B56" s="20" t="s">
         <v>24</v>
@@ -7757,7 +7756,7 @@
       </c>
       <c r="I56" s="20"/>
     </row>
-    <row r="57" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="20"/>
       <c r="B57" s="20" t="s">
         <v>24</v>
@@ -7780,7 +7779,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="20"/>
       <c r="B58" s="20" t="s">
         <v>24</v>
@@ -7803,7 +7802,7 @@
       </c>
       <c r="I58" s="20"/>
     </row>
-    <row r="59" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="20"/>
       <c r="B59" s="20" t="s">
         <v>24</v>
@@ -7826,7 +7825,7 @@
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="20"/>
       <c r="B60" s="20" t="s">
         <v>24</v>
@@ -7849,7 +7848,7 @@
       </c>
       <c r="I60" s="20"/>
     </row>
-    <row r="61" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="20" t="b">
         <v>0</v>
       </c>
@@ -7868,7 +7867,7 @@
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="20"/>
       <c r="B62" s="20" t="s">
         <v>24</v>
@@ -7889,7 +7888,7 @@
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
     </row>
-    <row r="63" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="20"/>
       <c r="B63" s="20" t="s">
         <v>24</v>
@@ -7914,7 +7913,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="20"/>
       <c r="B64" s="20" t="s">
         <v>24</v>
@@ -7937,7 +7936,7 @@
       </c>
       <c r="I64" s="20"/>
     </row>
-    <row r="65" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="20"/>
       <c r="B65" s="20" t="s">
         <v>24</v>
@@ -7960,7 +7959,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="20"/>
       <c r="B66" s="20" t="s">
         <v>24</v>
@@ -7983,7 +7982,7 @@
       </c>
       <c r="I66" s="20"/>
     </row>
-    <row r="67" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="20"/>
       <c r="B67" s="20" t="s">
         <v>24</v>
@@ -8006,7 +8005,7 @@
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="20"/>
       <c r="B68" s="20" t="s">
         <v>24</v>
@@ -8029,7 +8028,7 @@
       </c>
       <c r="I68" s="20"/>
     </row>
-    <row r="69" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="20"/>
       <c r="B69" s="20" t="s">
         <v>24</v>
@@ -8052,7 +8051,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="20"/>
       <c r="B70" s="20" t="s">
         <v>24</v>
@@ -8075,7 +8074,7 @@
       </c>
       <c r="I70" s="20"/>
     </row>
-    <row r="71" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="20"/>
       <c r="B71" s="20" t="s">
         <v>24</v>
@@ -8098,7 +8097,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="20" t="b">
         <v>0</v>
       </c>
@@ -8117,7 +8116,7 @@
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
     </row>
-    <row r="73" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="20"/>
       <c r="B73" s="20" t="s">
         <v>24</v>
@@ -8138,7 +8137,7 @@
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="20"/>
       <c r="B74" s="20" t="s">
         <v>24</v>
@@ -8161,7 +8160,7 @@
       </c>
       <c r="I74" s="20"/>
     </row>
-    <row r="75" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="20"/>
       <c r="B75" s="20" t="s">
         <v>24</v>
@@ -8186,7 +8185,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="20"/>
       <c r="B76" s="20" t="s">
         <v>24</v>
@@ -8209,7 +8208,7 @@
       </c>
       <c r="I76" s="20"/>
     </row>
-    <row r="77" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="20"/>
       <c r="B77" s="20" t="s">
         <v>24</v>
@@ -8232,7 +8231,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="20"/>
       <c r="B78" s="20" t="s">
         <v>24</v>
@@ -8255,7 +8254,7 @@
       </c>
       <c r="I78" s="20"/>
     </row>
-    <row r="79" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="20"/>
       <c r="B79" s="20" t="s">
         <v>24</v>
@@ -8278,7 +8277,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="20"/>
       <c r="B80" s="20" t="s">
         <v>24</v>
@@ -8301,7 +8300,7 @@
       </c>
       <c r="I80" s="20"/>
     </row>
-    <row r="81" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="20"/>
       <c r="B81" s="20" t="s">
         <v>24</v>
@@ -8324,7 +8323,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="20"/>
       <c r="B82" s="20" t="s">
         <v>24</v>
@@ -8347,7 +8346,7 @@
       </c>
       <c r="I82" s="20"/>
     </row>
-    <row r="83" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="20"/>
       <c r="B83" s="20" t="s">
         <v>24</v>
@@ -8370,7 +8369,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="20"/>
       <c r="B84" s="20" t="s">
         <v>24</v>
@@ -8393,7 +8392,7 @@
       </c>
       <c r="I84" s="20"/>
     </row>
-    <row r="85" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="20"/>
       <c r="B85" s="20" t="s">
         <v>24</v>
@@ -8416,7 +8415,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="20" t="b">
         <v>0</v>
       </c>
@@ -8435,7 +8434,7 @@
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
     </row>
-    <row r="87" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="20"/>
       <c r="B87" s="20" t="s">
         <v>24</v>
@@ -8458,7 +8457,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="20"/>
       <c r="B88" s="20" t="s">
         <v>24</v>
@@ -8481,7 +8480,7 @@
       </c>
       <c r="I88" s="20"/>
     </row>
-    <row r="89" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="20"/>
       <c r="B89" s="20" t="s">
         <v>24</v>
@@ -8504,7 +8503,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="20"/>
       <c r="B90" s="20" t="s">
         <v>24</v>
@@ -8527,7 +8526,7 @@
       </c>
       <c r="I90" s="20"/>
     </row>
-    <row r="91" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="20"/>
       <c r="B91" s="20" t="s">
         <v>24</v>
@@ -8550,7 +8549,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="20"/>
       <c r="B92" s="20" t="s">
         <v>24</v>
@@ -8573,7 +8572,7 @@
       </c>
       <c r="I92" s="20"/>
     </row>
-    <row r="93" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="20"/>
       <c r="B93" s="20" t="s">
         <v>24</v>
@@ -8596,7 +8595,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="20"/>
       <c r="B94" s="20" t="s">
         <v>24</v>
@@ -8619,7 +8618,7 @@
       </c>
       <c r="I94" s="20"/>
     </row>
-    <row r="95" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="20"/>
       <c r="B95" s="20" t="s">
         <v>24</v>
@@ -8642,7 +8641,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="20"/>
       <c r="B96" s="20" t="s">
         <v>24</v>
@@ -8665,7 +8664,7 @@
       </c>
       <c r="I96" s="20"/>
     </row>
-    <row r="97" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="20" t="b">
         <v>0</v>
       </c>
@@ -8684,7 +8683,7 @@
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="20"/>
       <c r="B98" s="20" t="s">
         <v>24</v>
@@ -8709,7 +8708,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="20" t="b">
         <v>0</v>
       </c>
@@ -8728,7 +8727,7 @@
       <c r="H99" s="20"/>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="20"/>
       <c r="B100" s="20" t="s">
         <v>24</v>
@@ -8749,7 +8748,7 @@
       <c r="H100" s="20"/>
       <c r="I100" s="20"/>
     </row>
-    <row r="101" spans="1:9" ht="19.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="19" customHeight="1">
       <c r="A101" s="20"/>
       <c r="B101" s="20" t="s">
         <v>24</v>
@@ -8774,7 +8773,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="20" t="b">
         <v>0</v>
       </c>
@@ -8793,7 +8792,7 @@
       <c r="H102" s="20"/>
       <c r="I102" s="20"/>
     </row>
-    <row r="103" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="20"/>
       <c r="B103" s="20" t="s">
         <v>24</v>
@@ -8816,7 +8815,7 @@
       </c>
       <c r="I103" s="20"/>
     </row>
-    <row r="104" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="20"/>
       <c r="B104" s="20" t="s">
         <v>24</v>
@@ -8841,7 +8840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="20"/>
       <c r="B105" s="20" t="s">
         <v>24</v>
@@ -8864,7 +8863,7 @@
       </c>
       <c r="I105" s="20"/>
     </row>
-    <row r="106" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="20"/>
       <c r="B106" s="20" t="s">
         <v>24</v>
@@ -8885,7 +8884,7 @@
       <c r="H106" s="20"/>
       <c r="I106" s="20"/>
     </row>
-    <row r="107" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="20" t="b">
         <v>0</v>
       </c>
@@ -8904,7 +8903,7 @@
       <c r="H107" s="20"/>
       <c r="I107" s="20"/>
     </row>
-    <row r="108" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="20"/>
       <c r="B108" s="20" t="s">
         <v>24</v>
@@ -8929,7 +8928,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="20"/>
       <c r="B109" s="20" t="s">
         <v>24</v>
@@ -8952,7 +8951,7 @@
       </c>
       <c r="I109" s="20"/>
     </row>
-    <row r="110" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="20"/>
       <c r="B110" s="20" t="s">
         <v>24</v>
@@ -8975,7 +8974,7 @@
       </c>
       <c r="I110" s="20"/>
     </row>
-    <row r="111" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="20"/>
       <c r="B111" s="20" t="s">
         <v>24</v>
@@ -8998,7 +8997,7 @@
       </c>
       <c r="I111" s="20"/>
     </row>
-    <row r="112" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="20"/>
       <c r="B112" s="20" t="s">
         <v>24</v>
@@ -9021,7 +9020,7 @@
       </c>
       <c r="I112" s="20"/>
     </row>
-    <row r="113" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="20"/>
       <c r="B113" s="20" t="s">
         <v>24</v>
@@ -9044,7 +9043,7 @@
       </c>
       <c r="I113" s="20"/>
     </row>
-    <row r="114" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="20"/>
       <c r="B114" s="20" t="s">
         <v>24</v>
@@ -9067,7 +9066,7 @@
       </c>
       <c r="I114" s="20"/>
     </row>
-    <row r="115" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="20" t="b">
         <v>0</v>
       </c>
@@ -9086,7 +9085,7 @@
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
     </row>
-    <row r="116" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="20"/>
       <c r="B116" s="20" t="s">
         <v>24</v>
@@ -9109,7 +9108,7 @@
       </c>
       <c r="I116" s="20"/>
     </row>
-    <row r="117" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="20"/>
       <c r="B117" s="20" t="s">
         <v>24</v>
@@ -9132,7 +9131,7 @@
       </c>
       <c r="I117" s="20"/>
     </row>
-    <row r="118" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="20"/>
       <c r="B118" s="20" t="s">
         <v>24</v>
@@ -9155,7 +9154,7 @@
       </c>
       <c r="I118" s="20"/>
     </row>
-    <row r="119" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="20" t="b">
         <v>0</v>
       </c>
@@ -9174,7 +9173,7 @@
       <c r="H119" s="20"/>
       <c r="I119" s="20"/>
     </row>
-    <row r="120" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="20"/>
       <c r="B120" s="20" t="s">
         <v>24</v>
@@ -9197,7 +9196,7 @@
       </c>
       <c r="I120" s="20"/>
     </row>
-    <row r="121" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="20"/>
       <c r="B121" s="20" t="s">
         <v>24</v>
@@ -9220,7 +9219,7 @@
       </c>
       <c r="I121" s="20"/>
     </row>
-    <row r="122" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="20"/>
       <c r="B122" s="20" t="s">
         <v>24</v>
@@ -9243,7 +9242,7 @@
       </c>
       <c r="I122" s="20"/>
     </row>
-    <row r="123" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="20"/>
       <c r="B123" s="20" t="s">
         <v>24</v>
@@ -9266,7 +9265,7 @@
       </c>
       <c r="I123" s="20"/>
     </row>
-    <row r="124" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="20"/>
       <c r="B124" s="20" t="s">
         <v>24</v>
@@ -9289,7 +9288,7 @@
       </c>
       <c r="I124" s="20"/>
     </row>
-    <row r="125" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="20"/>
       <c r="B125" s="20" t="s">
         <v>24</v>
@@ -9312,7 +9311,7 @@
       </c>
       <c r="I125" s="20"/>
     </row>
-    <row r="126" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="20" t="b">
         <v>0</v>
       </c>
@@ -9331,7 +9330,7 @@
       <c r="H126" s="20"/>
       <c r="I126" s="20"/>
     </row>
-    <row r="127" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="20"/>
       <c r="B127" s="20" t="s">
         <v>24</v>
@@ -9356,7 +9355,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="20"/>
       <c r="B128" s="20" t="s">
         <v>24</v>
@@ -9379,7 +9378,7 @@
       </c>
       <c r="I128" s="20"/>
     </row>
-    <row r="129" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="20"/>
       <c r="B129" s="20" t="s">
         <v>24</v>
@@ -9402,7 +9401,7 @@
       </c>
       <c r="I129" s="20"/>
     </row>
-    <row r="130" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="20"/>
       <c r="B130" s="20" t="s">
         <v>24</v>
@@ -9425,7 +9424,7 @@
       </c>
       <c r="I130" s="20"/>
     </row>
-    <row r="131" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="20"/>
       <c r="B131" s="20" t="s">
         <v>24</v>
@@ -9448,7 +9447,7 @@
       </c>
       <c r="I131" s="20"/>
     </row>
-    <row r="132" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="20"/>
       <c r="B132" s="20" t="s">
         <v>24</v>
@@ -9471,7 +9470,7 @@
       </c>
       <c r="I132" s="20"/>
     </row>
-    <row r="133" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="20"/>
       <c r="B133" s="20" t="s">
         <v>24</v>
@@ -9494,7 +9493,7 @@
       </c>
       <c r="I133" s="20"/>
     </row>
-    <row r="134" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="20"/>
       <c r="B134" s="20" t="s">
         <v>24</v>
@@ -9517,7 +9516,7 @@
       </c>
       <c r="I134" s="20"/>
     </row>
-    <row r="135" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="20"/>
       <c r="B135" s="20" t="s">
         <v>24</v>
@@ -9540,7 +9539,7 @@
       </c>
       <c r="I135" s="20"/>
     </row>
-    <row r="136" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="20" t="b">
         <v>0</v>
       </c>
@@ -9559,7 +9558,7 @@
       <c r="H136" s="20"/>
       <c r="I136" s="20"/>
     </row>
-    <row r="137" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="20"/>
       <c r="B137" s="20" t="s">
         <v>24</v>
@@ -9584,7 +9583,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="20"/>
       <c r="B138" s="20" t="s">
         <v>24</v>
@@ -9605,7 +9604,7 @@
       <c r="H138" s="20"/>
       <c r="I138" s="20"/>
     </row>
-    <row r="139" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="20"/>
       <c r="B139" s="20" t="s">
         <v>24</v>
@@ -9628,7 +9627,7 @@
       </c>
       <c r="I139" s="20"/>
     </row>
-    <row r="140" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="20"/>
       <c r="B140" s="20" t="s">
         <v>24</v>
@@ -9651,7 +9650,7 @@
       </c>
       <c r="I140" s="20"/>
     </row>
-    <row r="141" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="20"/>
       <c r="B141" s="20" t="s">
         <v>24</v>
@@ -9674,7 +9673,7 @@
       </c>
       <c r="I141" s="20"/>
     </row>
-    <row r="142" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="20"/>
       <c r="B142" s="20" t="s">
         <v>24</v>
@@ -9697,7 +9696,7 @@
       </c>
       <c r="I142" s="20"/>
     </row>
-    <row r="143" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="20"/>
       <c r="B143" s="20" t="s">
         <v>24</v>
@@ -9720,7 +9719,7 @@
       </c>
       <c r="I143" s="20"/>
     </row>
-    <row r="144" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="20"/>
       <c r="B144" s="20" t="s">
         <v>24</v>
@@ -9743,7 +9742,7 @@
       </c>
       <c r="I144" s="20"/>
     </row>
-    <row r="145" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="20"/>
       <c r="B145" s="20" t="s">
         <v>24</v>
@@ -9766,7 +9765,7 @@
       </c>
       <c r="I145" s="20"/>
     </row>
-    <row r="146" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="20"/>
       <c r="B146" s="20" t="s">
         <v>24</v>
@@ -9789,7 +9788,7 @@
       </c>
       <c r="I146" s="20"/>
     </row>
-    <row r="147" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="20"/>
       <c r="B147" s="20" t="s">
         <v>24</v>
@@ -9812,7 +9811,7 @@
       </c>
       <c r="I147" s="20"/>
     </row>
-    <row r="148" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="20"/>
       <c r="B148" s="20" t="s">
         <v>24</v>
@@ -9835,7 +9834,7 @@
       </c>
       <c r="I148" s="20"/>
     </row>
-    <row r="149" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="20"/>
       <c r="B149" s="20" t="s">
         <v>24</v>
@@ -9858,7 +9857,7 @@
       </c>
       <c r="I149" s="20"/>
     </row>
-    <row r="150" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="20"/>
       <c r="B150" s="20" t="s">
         <v>24</v>
@@ -9881,7 +9880,7 @@
       </c>
       <c r="I150" s="20"/>
     </row>
-    <row r="151" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="20" t="b">
         <v>0</v>
       </c>
@@ -9900,7 +9899,7 @@
       <c r="H151" s="20"/>
       <c r="I151" s="20"/>
     </row>
-    <row r="152" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="20"/>
       <c r="B152" s="20" t="s">
         <v>24</v>
@@ -9923,7 +9922,7 @@
       </c>
       <c r="I152" s="20"/>
     </row>
-    <row r="153" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="20" t="b">
         <v>0</v>
       </c>
@@ -9942,7 +9941,7 @@
       <c r="H153" s="20"/>
       <c r="I153" s="20"/>
     </row>
-    <row r="154" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="20"/>
       <c r="B154" s="20" t="s">
         <v>24</v>
@@ -9965,7 +9964,7 @@
       </c>
       <c r="I154" s="20"/>
     </row>
-    <row r="155" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="20"/>
       <c r="B155" s="20" t="s">
         <v>24</v>
@@ -9988,7 +9987,7 @@
       </c>
       <c r="I155" s="20"/>
     </row>
-    <row r="156" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="20" t="b">
         <v>0</v>
       </c>
@@ -10007,7 +10006,7 @@
       <c r="H156" s="20"/>
       <c r="I156" s="20"/>
     </row>
-    <row r="157" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="20"/>
       <c r="B157" s="20" t="s">
         <v>24</v>
@@ -10032,7 +10031,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="20"/>
       <c r="B158" s="20" t="s">
         <v>24</v>
@@ -10055,7 +10054,7 @@
       </c>
       <c r="I158" s="20"/>
     </row>
-    <row r="159" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="20"/>
       <c r="B159" s="20" t="s">
         <v>24</v>
@@ -10078,7 +10077,7 @@
       </c>
       <c r="I159" s="20"/>
     </row>
-    <row r="160" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="20"/>
       <c r="B160" s="20" t="s">
         <v>24</v>
@@ -10101,7 +10100,7 @@
       </c>
       <c r="I160" s="20"/>
     </row>
-    <row r="161" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="20"/>
       <c r="B161" s="20" t="s">
         <v>24</v>
@@ -10124,7 +10123,7 @@
       </c>
       <c r="I161" s="20"/>
     </row>
-    <row r="162" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="20"/>
       <c r="B162" s="20" t="s">
         <v>24</v>
@@ -10147,7 +10146,7 @@
       </c>
       <c r="I162" s="20"/>
     </row>
-    <row r="163" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="20"/>
       <c r="B163" s="20" t="s">
         <v>24</v>
@@ -10170,7 +10169,7 @@
       </c>
       <c r="I163" s="20"/>
     </row>
-    <row r="164" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="20"/>
       <c r="B164" s="20" t="s">
         <v>24</v>
@@ -10193,7 +10192,7 @@
       </c>
       <c r="I164" s="20"/>
     </row>
-    <row r="165" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="20"/>
       <c r="B165" s="20" t="s">
         <v>24</v>
@@ -10216,7 +10215,7 @@
       </c>
       <c r="I165" s="20"/>
     </row>
-    <row r="166" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="20"/>
       <c r="B166" s="20" t="s">
         <v>24</v>
@@ -10239,7 +10238,7 @@
       </c>
       <c r="I166" s="20"/>
     </row>
-    <row r="167" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="20" t="b">
         <v>0</v>
       </c>
@@ -10258,7 +10257,7 @@
       <c r="H167" s="20"/>
       <c r="I167" s="20"/>
     </row>
-    <row r="168" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="20"/>
       <c r="B168" s="20" t="s">
         <v>24</v>
@@ -10283,7 +10282,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="20"/>
       <c r="B169" s="20" t="s">
         <v>24</v>
@@ -10306,7 +10305,7 @@
       </c>
       <c r="I169" s="20"/>
     </row>
-    <row r="170" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="20"/>
       <c r="B170" s="20" t="s">
         <v>24</v>
@@ -10329,7 +10328,7 @@
       </c>
       <c r="I170" s="20"/>
     </row>
-    <row r="171" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="20"/>
       <c r="B171" s="20" t="s">
         <v>24</v>
@@ -10352,7 +10351,7 @@
       </c>
       <c r="I171" s="20"/>
     </row>
-    <row r="172" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="20"/>
       <c r="B172" s="20" t="s">
         <v>24</v>
@@ -10375,7 +10374,7 @@
       </c>
       <c r="I172" s="20"/>
     </row>
-    <row r="173" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="20"/>
       <c r="B173" s="20" t="s">
         <v>24</v>
@@ -10398,7 +10397,7 @@
       </c>
       <c r="I173" s="20"/>
     </row>
-    <row r="174" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="20"/>
       <c r="B174" s="20" t="s">
         <v>24</v>
@@ -10421,7 +10420,7 @@
       </c>
       <c r="I174" s="20"/>
     </row>
-    <row r="175" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="20"/>
       <c r="B175" s="20" t="s">
         <v>24</v>
@@ -10444,7 +10443,7 @@
       </c>
       <c r="I175" s="20"/>
     </row>
-    <row r="176" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="20"/>
       <c r="B176" s="20" t="s">
         <v>24</v>
@@ -10467,7 +10466,7 @@
       </c>
       <c r="I176" s="20"/>
     </row>
-    <row r="177" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="20"/>
       <c r="B177" s="20" t="s">
         <v>24</v>
@@ -10490,7 +10489,7 @@
       </c>
       <c r="I177" s="20"/>
     </row>
-    <row r="178" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="20" t="b">
         <v>0</v>
       </c>
@@ -10509,7 +10508,7 @@
       <c r="H178" s="20"/>
       <c r="I178" s="20"/>
     </row>
-    <row r="179" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="20"/>
       <c r="B179" s="20" t="s">
         <v>24</v>
@@ -10532,7 +10531,7 @@
       </c>
       <c r="I179" s="20"/>
     </row>
-    <row r="180" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="20"/>
       <c r="B180" s="20" t="s">
         <v>24</v>
@@ -10555,7 +10554,7 @@
       </c>
       <c r="I180" s="20"/>
     </row>
-    <row r="181" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="20"/>
       <c r="B181" s="20" t="s">
         <v>24</v>
@@ -10578,7 +10577,7 @@
       </c>
       <c r="I181" s="20"/>
     </row>
-    <row r="182" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="20"/>
       <c r="B182" s="20" t="s">
         <v>24</v>
@@ -10601,7 +10600,7 @@
       </c>
       <c r="I182" s="20"/>
     </row>
-    <row r="183" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="20" t="b">
         <v>0</v>
       </c>
@@ -10620,7 +10619,7 @@
       <c r="H183" s="20"/>
       <c r="I183" s="20"/>
     </row>
-    <row r="184" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="20"/>
       <c r="B184" s="20" t="s">
         <v>24</v>
@@ -10643,7 +10642,7 @@
       </c>
       <c r="I184" s="20"/>
     </row>
-    <row r="185" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="20"/>
       <c r="B185" s="20" t="s">
         <v>24</v>
@@ -10666,7 +10665,7 @@
       </c>
       <c r="I185" s="20"/>
     </row>
-    <row r="186" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="20"/>
       <c r="B186" s="20" t="s">
         <v>24</v>
@@ -10689,7 +10688,7 @@
       </c>
       <c r="I186" s="20"/>
     </row>
-    <row r="187" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="20"/>
       <c r="B187" s="20" t="s">
         <v>24</v>
@@ -10712,7 +10711,7 @@
       </c>
       <c r="I187" s="20"/>
     </row>
-    <row r="188" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="20" t="b">
         <v>0</v>
       </c>
@@ -10731,7 +10730,7 @@
       <c r="H188" s="20"/>
       <c r="I188" s="20"/>
     </row>
-    <row r="189" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="20"/>
       <c r="B189" s="20" t="s">
         <v>24</v>
@@ -10752,7 +10751,7 @@
       <c r="H189" s="20"/>
       <c r="I189" s="20"/>
     </row>
-    <row r="190" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="20"/>
       <c r="B190" s="20" t="s">
         <v>24</v>
@@ -10775,7 +10774,7 @@
       </c>
       <c r="I190" s="20"/>
     </row>
-    <row r="191" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="20" t="b">
         <v>0</v>
       </c>
@@ -10794,7 +10793,7 @@
       <c r="H191" s="20"/>
       <c r="I191" s="20"/>
     </row>
-    <row r="192" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="20"/>
       <c r="B192" s="20" t="s">
         <v>24</v>
@@ -10817,7 +10816,7 @@
       </c>
       <c r="I192" s="20"/>
     </row>
-    <row r="193" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="20"/>
       <c r="B193" s="20" t="s">
         <v>24</v>
@@ -10842,7 +10841,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="20"/>
       <c r="B194" s="20" t="s">
         <v>24</v>
@@ -10863,7 +10862,7 @@
       <c r="H194" s="20"/>
       <c r="I194" s="20"/>
     </row>
-    <row r="195" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="20"/>
       <c r="B195" s="20" t="s">
         <v>24</v>
@@ -10888,7 +10887,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="20"/>
       <c r="B196" s="20" t="s">
         <v>24</v>
@@ -10913,7 +10912,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="20" t="b">
         <v>0</v>
       </c>
@@ -10932,7 +10931,7 @@
       <c r="H197" s="20"/>
       <c r="I197" s="20"/>
     </row>
-    <row r="198" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="20"/>
       <c r="B198" s="20" t="s">
         <v>24</v>
@@ -10957,7 +10956,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="20"/>
       <c r="B199" s="20" t="s">
         <v>24</v>
@@ -10980,7 +10979,7 @@
       </c>
       <c r="I199" s="20"/>
     </row>
-    <row r="200" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="20"/>
       <c r="B200" s="20" t="s">
         <v>24</v>
@@ -11003,7 +11002,7 @@
       </c>
       <c r="I200" s="20"/>
     </row>
-    <row r="201" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="20"/>
       <c r="B201" s="20" t="s">
         <v>24</v>
@@ -11026,7 +11025,7 @@
       </c>
       <c r="I201" s="20"/>
     </row>
-    <row r="202" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="20"/>
       <c r="B202" s="20" t="s">
         <v>24</v>
@@ -11049,7 +11048,7 @@
       </c>
       <c r="I202" s="20"/>
     </row>
-    <row r="203" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="20"/>
       <c r="B203" s="20" t="s">
         <v>24</v>
@@ -11072,7 +11071,7 @@
       </c>
       <c r="I203" s="20"/>
     </row>
-    <row r="204" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="20"/>
       <c r="B204" s="20" t="s">
         <v>24</v>
@@ -11095,7 +11094,7 @@
       </c>
       <c r="I204" s="20"/>
     </row>
-    <row r="205" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="20"/>
       <c r="B205" s="20" t="s">
         <v>24</v>
@@ -11118,7 +11117,7 @@
       </c>
       <c r="I205" s="20"/>
     </row>
-    <row r="206" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="20"/>
       <c r="B206" s="20" t="s">
         <v>24</v>
@@ -11141,7 +11140,7 @@
       </c>
       <c r="I206" s="20"/>
     </row>
-    <row r="207" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="20" t="b">
         <v>0</v>
       </c>
@@ -11160,7 +11159,7 @@
       <c r="H207" s="20"/>
       <c r="I207" s="20"/>
     </row>
-    <row r="208" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="20"/>
       <c r="B208" s="20" t="s">
         <v>24</v>
@@ -11185,7 +11184,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="20"/>
       <c r="B209" s="20" t="s">
         <v>24</v>
@@ -11208,7 +11207,7 @@
       </c>
       <c r="I209" s="20"/>
     </row>
-    <row r="210" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="20"/>
       <c r="B210" s="20" t="s">
         <v>24</v>
@@ -11231,7 +11230,7 @@
       </c>
       <c r="I210" s="20"/>
     </row>
-    <row r="211" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="20"/>
       <c r="B211" s="20" t="s">
         <v>24</v>
@@ -11254,7 +11253,7 @@
       </c>
       <c r="I211" s="20"/>
     </row>
-    <row r="212" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="20"/>
       <c r="B212" s="20" t="s">
         <v>24</v>
@@ -11277,7 +11276,7 @@
       </c>
       <c r="I212" s="20"/>
     </row>
-    <row r="213" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="20"/>
       <c r="B213" s="20" t="s">
         <v>24</v>
@@ -11300,7 +11299,7 @@
       </c>
       <c r="I213" s="20"/>
     </row>
-    <row r="214" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="20"/>
       <c r="B214" s="20" t="s">
         <v>24</v>
@@ -11323,7 +11322,7 @@
       </c>
       <c r="I214" s="20"/>
     </row>
-    <row r="215" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="20"/>
       <c r="B215" s="20" t="s">
         <v>24</v>
@@ -11346,7 +11345,7 @@
       </c>
       <c r="I215" s="20"/>
     </row>
-    <row r="216" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="20"/>
       <c r="B216" s="20" t="s">
         <v>24</v>
@@ -11369,7 +11368,7 @@
       </c>
       <c r="I216" s="20"/>
     </row>
-    <row r="217" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="20" t="b">
         <v>0</v>
       </c>
@@ -11388,7 +11387,7 @@
       <c r="H217" s="20"/>
       <c r="I217" s="20"/>
     </row>
-    <row r="218" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="20"/>
       <c r="B218" s="20" t="s">
         <v>24</v>
@@ -11409,7 +11408,7 @@
       <c r="H218" s="20"/>
       <c r="I218" s="20"/>
     </row>
-    <row r="219" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="20"/>
       <c r="B219" s="20" t="s">
         <v>24</v>
@@ -11432,7 +11431,7 @@
       </c>
       <c r="I219" s="20"/>
     </row>
-    <row r="220" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="20"/>
       <c r="B220" s="20" t="s">
         <v>24</v>
@@ -11455,7 +11454,7 @@
       </c>
       <c r="I220" s="20"/>
     </row>
-    <row r="221" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="20"/>
       <c r="B221" s="20" t="s">
         <v>24</v>
@@ -11478,7 +11477,7 @@
       </c>
       <c r="I221" s="20"/>
     </row>
-    <row r="222" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="20"/>
       <c r="B222" s="20" t="s">
         <v>24</v>
@@ -11501,7 +11500,7 @@
       </c>
       <c r="I222" s="20"/>
     </row>
-    <row r="223" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="20"/>
       <c r="B223" s="20" t="s">
         <v>24</v>
@@ -11524,7 +11523,7 @@
       </c>
       <c r="I223" s="20"/>
     </row>
-    <row r="224" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="20"/>
       <c r="B224" s="20" t="s">
         <v>24</v>
@@ -11547,7 +11546,7 @@
       </c>
       <c r="I224" s="20"/>
     </row>
-    <row r="225" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="20"/>
       <c r="B225" s="20" t="s">
         <v>24</v>
@@ -11570,7 +11569,7 @@
       </c>
       <c r="I225" s="20"/>
     </row>
-    <row r="226" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="20"/>
       <c r="B226" s="20" t="s">
         <v>24</v>
@@ -11593,7 +11592,7 @@
       </c>
       <c r="I226" s="20"/>
     </row>
-    <row r="227" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="20"/>
       <c r="B227" s="20" t="s">
         <v>24</v>
@@ -11616,7 +11615,7 @@
       </c>
       <c r="I227" s="20"/>
     </row>
-    <row r="228" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="20"/>
       <c r="B228" s="20" t="s">
         <v>24</v>
@@ -11639,7 +11638,7 @@
       </c>
       <c r="I228" s="20"/>
     </row>
-    <row r="229" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="20"/>
       <c r="B229" s="20" t="s">
         <v>24</v>
@@ -11662,7 +11661,7 @@
       </c>
       <c r="I229" s="20"/>
     </row>
-    <row r="230" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="20"/>
       <c r="B230" s="20" t="s">
         <v>24</v>
@@ -11685,7 +11684,7 @@
       </c>
       <c r="I230" s="20"/>
     </row>
-    <row r="231" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="20"/>
       <c r="B231" s="20" t="s">
         <v>24</v>
@@ -11708,7 +11707,7 @@
       </c>
       <c r="I231" s="20"/>
     </row>
-    <row r="232" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="20"/>
       <c r="B232" s="20" t="s">
         <v>24</v>
@@ -11731,7 +11730,7 @@
       </c>
       <c r="I232" s="20"/>
     </row>
-    <row r="233" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="20"/>
       <c r="B233" s="20" t="s">
         <v>24</v>
@@ -11754,7 +11753,7 @@
       </c>
       <c r="I233" s="20"/>
     </row>
-    <row r="234" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="20" t="b">
         <v>0</v>
       </c>
@@ -11773,7 +11772,7 @@
       <c r="H234" s="20"/>
       <c r="I234" s="20"/>
     </row>
-    <row r="235" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="20"/>
       <c r="B235" s="20" t="s">
         <v>24</v>
@@ -11794,7 +11793,7 @@
       <c r="H235" s="20"/>
       <c r="I235" s="20"/>
     </row>
-    <row r="236" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="20"/>
       <c r="B236" s="20" t="s">
         <v>24</v>
@@ -11817,7 +11816,7 @@
       </c>
       <c r="I236" s="20"/>
     </row>
-    <row r="237" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="20"/>
       <c r="B237" s="20" t="s">
         <v>24</v>
@@ -11840,7 +11839,7 @@
       </c>
       <c r="I237" s="20"/>
     </row>
-    <row r="238" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="20"/>
       <c r="B238" s="20" t="s">
         <v>24</v>
@@ -11863,7 +11862,7 @@
       </c>
       <c r="I238" s="20"/>
     </row>
-    <row r="239" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="20"/>
       <c r="B239" s="20" t="s">
         <v>24</v>
@@ -11886,7 +11885,7 @@
       </c>
       <c r="I239" s="20"/>
     </row>
-    <row r="240" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="20"/>
       <c r="B240" s="20" t="s">
         <v>24</v>
@@ -11909,7 +11908,7 @@
       </c>
       <c r="I240" s="20"/>
     </row>
-    <row r="241" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="20"/>
       <c r="B241" s="20" t="s">
         <v>24</v>
@@ -11932,7 +11931,7 @@
       </c>
       <c r="I241" s="20"/>
     </row>
-    <row r="242" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="20"/>
       <c r="B242" s="20" t="s">
         <v>24</v>
@@ -11955,7 +11954,7 @@
       </c>
       <c r="I242" s="20"/>
     </row>
-    <row r="243" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="20"/>
       <c r="B243" s="20" t="s">
         <v>24</v>
@@ -11978,7 +11977,7 @@
       </c>
       <c r="I243" s="20"/>
     </row>
-    <row r="244" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="20"/>
       <c r="B244" s="20" t="s">
         <v>24</v>
@@ -12001,7 +12000,7 @@
       </c>
       <c r="I244" s="20"/>
     </row>
-    <row r="245" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="20"/>
       <c r="B245" s="20" t="s">
         <v>24</v>
@@ -12024,7 +12023,7 @@
       </c>
       <c r="I245" s="20"/>
     </row>
-    <row r="246" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="20"/>
       <c r="B246" s="20" t="s">
         <v>24</v>
@@ -12047,7 +12046,7 @@
       </c>
       <c r="I246" s="20"/>
     </row>
-    <row r="247" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="20"/>
       <c r="B247" s="20" t="s">
         <v>24</v>
@@ -12070,7 +12069,7 @@
       </c>
       <c r="I247" s="20"/>
     </row>
-    <row r="248" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="20"/>
       <c r="B248" s="20" t="s">
         <v>24</v>
@@ -12093,7 +12092,7 @@
       </c>
       <c r="I248" s="20"/>
     </row>
-    <row r="249" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="20"/>
       <c r="B249" s="20" t="s">
         <v>24</v>
@@ -12116,7 +12115,7 @@
       </c>
       <c r="I249" s="20"/>
     </row>
-    <row r="250" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="20"/>
       <c r="B250" s="20" t="s">
         <v>24</v>
@@ -12139,7 +12138,7 @@
       </c>
       <c r="I250" s="20"/>
     </row>
-    <row r="251" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="20" t="b">
         <v>0</v>
       </c>
@@ -12158,7 +12157,7 @@
       <c r="H251" s="20"/>
       <c r="I251" s="20"/>
     </row>
-    <row r="252" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="20"/>
       <c r="B252" s="20" t="s">
         <v>24</v>
@@ -12183,7 +12182,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="20"/>
       <c r="B253" s="20" t="s">
         <v>24</v>
@@ -12206,7 +12205,7 @@
       </c>
       <c r="I253" s="20"/>
     </row>
-    <row r="254" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="20"/>
       <c r="B254" s="20" t="s">
         <v>24</v>
@@ -12229,7 +12228,7 @@
       </c>
       <c r="I254" s="20"/>
     </row>
-    <row r="255" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="20"/>
       <c r="B255" s="20" t="s">
         <v>24</v>
@@ -12252,7 +12251,7 @@
       </c>
       <c r="I255" s="20"/>
     </row>
-    <row r="256" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="20"/>
       <c r="B256" s="20" t="s">
         <v>24</v>
@@ -12275,7 +12274,7 @@
       </c>
       <c r="I256" s="20"/>
     </row>
-    <row r="257" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="20" t="b">
         <v>0</v>
       </c>
@@ -12294,7 +12293,7 @@
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
     </row>
-    <row r="258" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="20"/>
       <c r="B258" s="20" t="s">
         <v>24</v>
@@ -12319,7 +12318,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="20"/>
       <c r="B259" s="20" t="s">
         <v>24</v>
@@ -12342,7 +12341,7 @@
       </c>
       <c r="I259" s="20"/>
     </row>
-    <row r="260" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="20" t="b">
         <v>0</v>
       </c>
@@ -12361,7 +12360,7 @@
       <c r="H260" s="20"/>
       <c r="I260" s="20"/>
     </row>
-    <row r="261" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="20" t="b">
         <v>0</v>
       </c>
@@ -12380,7 +12379,7 @@
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
     </row>
-    <row r="262" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="20" t="b">
         <v>0</v>
       </c>
@@ -12399,7 +12398,7 @@
       <c r="H262" s="20"/>
       <c r="I262" s="20"/>
     </row>
-    <row r="263" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="20"/>
       <c r="B263" s="20" t="s">
         <v>24</v>
@@ -12420,7 +12419,7 @@
       <c r="H263" s="20"/>
       <c r="I263" s="20"/>
     </row>
-    <row r="264" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="20"/>
       <c r="B264" s="20" t="s">
         <v>24</v>
@@ -12443,7 +12442,7 @@
       </c>
       <c r="I264" s="20"/>
     </row>
-    <row r="265" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="20"/>
       <c r="B265" s="20" t="s">
         <v>24</v>
@@ -12466,7 +12465,7 @@
       </c>
       <c r="I265" s="20"/>
     </row>
-    <row r="266" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="20"/>
       <c r="B266" s="20" t="s">
         <v>24</v>
@@ -12489,7 +12488,7 @@
       </c>
       <c r="I266" s="20"/>
     </row>
-    <row r="267" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="20"/>
       <c r="B267" s="20" t="s">
         <v>24</v>
@@ -12512,7 +12511,7 @@
       </c>
       <c r="I267" s="20"/>
     </row>
-    <row r="268" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="20"/>
       <c r="B268" s="20" t="s">
         <v>24</v>
@@ -12535,7 +12534,7 @@
       </c>
       <c r="I268" s="20"/>
     </row>
-    <row r="269" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="20"/>
       <c r="B269" s="20" t="s">
         <v>24</v>
@@ -12558,7 +12557,7 @@
       </c>
       <c r="I269" s="20"/>
     </row>
-    <row r="270" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="20"/>
       <c r="B270" s="20" t="s">
         <v>24</v>
@@ -12581,7 +12580,7 @@
       </c>
       <c r="I270" s="20"/>
     </row>
-    <row r="271" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="20"/>
       <c r="B271" s="20" t="s">
         <v>24</v>
@@ -12604,7 +12603,7 @@
       </c>
       <c r="I271" s="20"/>
     </row>
-    <row r="272" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="20"/>
       <c r="B272" s="20" t="s">
         <v>24</v>
@@ -12627,7 +12626,7 @@
       </c>
       <c r="I272" s="20"/>
     </row>
-    <row r="273" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="20"/>
       <c r="B273" s="20" t="s">
         <v>24</v>
@@ -12650,7 +12649,7 @@
       </c>
       <c r="I273" s="20"/>
     </row>
-    <row r="274" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="20" t="b">
         <v>0</v>
       </c>
@@ -12669,7 +12668,7 @@
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
     </row>
-    <row r="275" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="20"/>
       <c r="B275" s="20" t="s">
         <v>24</v>
@@ -12692,7 +12691,7 @@
       </c>
       <c r="I275" s="20"/>
     </row>
-    <row r="276" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="20" t="b">
         <v>0</v>
       </c>
@@ -12711,7 +12710,7 @@
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
     </row>
-    <row r="277" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="20"/>
       <c r="B277" s="20" t="s">
         <v>24</v>
@@ -12736,7 +12735,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="20"/>
       <c r="B278" s="20" t="s">
         <v>24</v>
@@ -12759,7 +12758,7 @@
       </c>
       <c r="I278" s="20"/>
     </row>
-    <row r="279" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="20"/>
       <c r="B279" s="20" t="s">
         <v>24</v>
@@ -12782,7 +12781,7 @@
       </c>
       <c r="I279" s="20"/>
     </row>
-    <row r="280" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="20"/>
       <c r="B280" s="20" t="s">
         <v>24</v>
@@ -12805,7 +12804,7 @@
       </c>
       <c r="I280" s="20"/>
     </row>
-    <row r="281" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="20"/>
       <c r="B281" s="20" t="s">
         <v>24</v>
@@ -12828,7 +12827,7 @@
       </c>
       <c r="I281" s="20"/>
     </row>
-    <row r="282" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="20"/>
       <c r="B282" s="20" t="s">
         <v>24</v>
@@ -12851,7 +12850,7 @@
       </c>
       <c r="I282" s="20"/>
     </row>
-    <row r="283" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="20"/>
       <c r="B283" s="20" t="s">
         <v>24</v>
@@ -12874,7 +12873,7 @@
       </c>
       <c r="I283" s="20"/>
     </row>
-    <row r="284" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="20"/>
       <c r="B284" s="20" t="s">
         <v>24</v>
@@ -12897,7 +12896,7 @@
       </c>
       <c r="I284" s="20"/>
     </row>
-    <row r="285" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="20"/>
       <c r="B285" s="20" t="s">
         <v>24</v>
@@ -12920,7 +12919,7 @@
       </c>
       <c r="I285" s="20"/>
     </row>
-    <row r="286" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="20"/>
       <c r="B286" s="20" t="s">
         <v>24</v>
@@ -12943,7 +12942,7 @@
       </c>
       <c r="I286" s="20"/>
     </row>
-    <row r="287" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="20"/>
       <c r="B287" s="20" t="s">
         <v>24</v>
@@ -12966,7 +12965,7 @@
       </c>
       <c r="I287" s="20"/>
     </row>
-    <row r="288" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="20" t="b">
         <v>0</v>
       </c>
@@ -12985,7 +12984,7 @@
       <c r="H288" s="20"/>
       <c r="I288" s="20"/>
     </row>
-    <row r="289" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="20"/>
       <c r="B289" s="20" t="s">
         <v>24</v>
@@ -13008,7 +13007,7 @@
       </c>
       <c r="I289" s="20"/>
     </row>
-    <row r="290" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="20" t="b">
         <v>0</v>
       </c>
@@ -13027,7 +13026,7 @@
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
     </row>
-    <row r="291" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="20"/>
       <c r="B291" s="20" t="s">
         <v>24</v>
@@ -13048,7 +13047,7 @@
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
     </row>
-    <row r="292" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="20" t="b">
         <v>0</v>
       </c>
@@ -13067,7 +13066,7 @@
       <c r="H292" s="20"/>
       <c r="I292" s="20"/>
     </row>
-    <row r="293" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="20"/>
       <c r="B293" s="20" t="s">
         <v>24</v>
@@ -13088,7 +13087,7 @@
       <c r="H293" s="20"/>
       <c r="I293" s="20"/>
     </row>
-    <row r="294" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="20" t="b">
         <v>0</v>
       </c>
@@ -13107,7 +13106,7 @@
       <c r="H294" s="20"/>
       <c r="I294" s="20"/>
     </row>
-    <row r="295" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="20"/>
       <c r="B295" s="20" t="s">
         <v>24</v>
@@ -13128,7 +13127,7 @@
       <c r="H295" s="20"/>
       <c r="I295" s="20"/>
     </row>
-    <row r="296" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="20" t="b">
         <v>0</v>
       </c>
@@ -13147,7 +13146,7 @@
       <c r="H296" s="20"/>
       <c r="I296" s="20"/>
     </row>
-    <row r="297" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="20"/>
       <c r="B297" s="20" t="s">
         <v>24</v>
@@ -13170,7 +13169,7 @@
       </c>
       <c r="I297" s="20"/>
     </row>
-    <row r="298" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="20" t="b">
         <v>0</v>
       </c>
@@ -13189,7 +13188,7 @@
       <c r="H298" s="20"/>
       <c r="I298" s="20"/>
     </row>
-    <row r="299" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="20"/>
       <c r="B299" s="20" t="s">
         <v>24</v>
@@ -13214,7 +13213,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="20"/>
       <c r="B300" s="20" t="s">
         <v>24</v>
@@ -13237,7 +13236,7 @@
       </c>
       <c r="I300" s="20"/>
     </row>
-    <row r="301" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="20"/>
       <c r="B301" s="20" t="s">
         <v>24</v>
@@ -13260,7 +13259,7 @@
       </c>
       <c r="I301" s="20"/>
     </row>
-    <row r="302" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="20"/>
       <c r="B302" s="20" t="s">
         <v>24</v>
@@ -13283,7 +13282,7 @@
       </c>
       <c r="I302" s="20"/>
     </row>
-    <row r="303" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="20"/>
       <c r="B303" s="20" t="s">
         <v>24</v>
@@ -13306,7 +13305,7 @@
       </c>
       <c r="I303" s="20"/>
     </row>
-    <row r="304" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="20"/>
       <c r="B304" s="20" t="s">
         <v>24</v>
@@ -13329,7 +13328,7 @@
       </c>
       <c r="I304" s="20"/>
     </row>
-    <row r="305" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="20"/>
       <c r="B305" s="20" t="s">
         <v>24</v>
@@ -13352,7 +13351,7 @@
       </c>
       <c r="I305" s="20"/>
     </row>
-    <row r="306" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="20"/>
       <c r="B306" s="20" t="s">
         <v>24</v>
@@ -13375,7 +13374,7 @@
       </c>
       <c r="I306" s="20"/>
     </row>
-    <row r="307" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="20"/>
       <c r="B307" s="20" t="s">
         <v>24</v>
@@ -13398,7 +13397,7 @@
       </c>
       <c r="I307" s="20"/>
     </row>
-    <row r="308" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="20" t="b">
         <v>0</v>
       </c>
@@ -13417,7 +13416,7 @@
       <c r="H308" s="20"/>
       <c r="I308" s="20"/>
     </row>
-    <row r="309" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="20"/>
       <c r="B309" s="20" t="s">
         <v>24</v>
@@ -13440,7 +13439,7 @@
       </c>
       <c r="I309" s="20"/>
     </row>
-    <row r="310" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="20"/>
       <c r="B310" s="20" t="s">
         <v>24</v>
@@ -13463,7 +13462,7 @@
       </c>
       <c r="I310" s="20"/>
     </row>
-    <row r="311" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="20"/>
       <c r="B311" s="20" t="s">
         <v>24</v>
@@ -13486,7 +13485,7 @@
       </c>
       <c r="I311" s="20"/>
     </row>
-    <row r="312" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="20"/>
       <c r="B312" s="20" t="s">
         <v>24</v>
@@ -13509,7 +13508,7 @@
       </c>
       <c r="I312" s="20"/>
     </row>
-    <row r="313" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="20" t="b">
         <v>0</v>
       </c>
@@ -13528,7 +13527,7 @@
       <c r="H313" s="20"/>
       <c r="I313" s="20"/>
     </row>
-    <row r="314" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="20"/>
       <c r="B314" s="20" t="s">
         <v>24</v>
@@ -13551,7 +13550,7 @@
       </c>
       <c r="I314" s="20"/>
     </row>
-    <row r="315" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="20"/>
       <c r="B315" s="20" t="s">
         <v>24</v>
@@ -13574,7 +13573,7 @@
       </c>
       <c r="I315" s="20"/>
     </row>
-    <row r="316" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="20"/>
       <c r="B316" s="20" t="s">
         <v>24</v>
@@ -13599,7 +13598,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="20" t="b">
         <v>0</v>
       </c>
@@ -13618,7 +13617,7 @@
       <c r="H317" s="20"/>
       <c r="I317" s="20"/>
     </row>
-    <row r="318" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="20"/>
       <c r="B318" s="20" t="s">
         <v>24</v>
@@ -13643,7 +13642,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="20"/>
       <c r="B319" s="20" t="s">
         <v>24</v>
@@ -13666,7 +13665,7 @@
       </c>
       <c r="I319" s="20"/>
     </row>
-    <row r="320" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="20" t="b">
         <v>0</v>
       </c>
@@ -13685,7 +13684,7 @@
       <c r="H320" s="20"/>
       <c r="I320" s="20"/>
     </row>
-    <row r="321" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="20"/>
       <c r="B321" s="20" t="s">
         <v>24</v>
@@ -13706,7 +13705,7 @@
       <c r="H321" s="20"/>
       <c r="I321" s="20"/>
     </row>
-    <row r="322" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="20"/>
       <c r="B322" s="20" t="s">
         <v>24</v>
@@ -13727,7 +13726,7 @@
       <c r="H322" s="20"/>
       <c r="I322" s="20"/>
     </row>
-    <row r="323" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="20"/>
       <c r="B323" s="20" t="s">
         <v>24</v>
@@ -13750,7 +13749,7 @@
       </c>
       <c r="I323" s="20"/>
     </row>
-    <row r="324" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="20" t="b">
         <v>0</v>
       </c>
@@ -13769,7 +13768,7 @@
       <c r="H324" s="20"/>
       <c r="I324" s="20"/>
     </row>
-    <row r="325" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="20" t="b">
         <v>0</v>
       </c>
@@ -13788,7 +13787,7 @@
       <c r="H325" s="20"/>
       <c r="I325" s="20"/>
     </row>
-    <row r="326" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="20"/>
       <c r="B326" s="20" t="s">
         <v>24</v>
@@ -13813,7 +13812,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="20"/>
       <c r="B327" s="20" t="s">
         <v>24</v>
